--- a/OutputData/CCHF/CCHF_Combined_11_26.xlsx
+++ b/OutputData/CCHF/CCHF_Combined_11_26.xlsx
@@ -9557,7 +9557,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Direct Submission, Seroepidemiological and molecular investigations of infections with Crimean-Congo haemorrhagic fever virus in Kazakhstan</t>
+          <t>Seroepidemiological and molecular investigations of infections with Crimean-Congo haemorrhagic fever virus in Kazakhstan</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Direct Submission, Genotypes of the Congo-Crimean Hemorrhagic Fever Virus Occurring in the Turkestan Region</t>
+          <t>Genotypes of the Congo-Crimean Hemorrhagic Fever Virus Occurring in the Turkestan Region</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -9737,7 +9737,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular Identification of Crimean-Congo Haemorrhagic Fever Virus in Livestock Ticks in the Upper East Region of Ghana</t>
+          <t>Molecular Identification of Crimean-Congo Haemorrhagic Fever Virus in Livestock Ticks in the Upper East Region of Ghana</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Direct Submission, Presence of broadly reactive and group-specific neutralizing epitopes on newly described isolates of Crimean-Congo hemorrhagic fever virus</t>
+          <t>Presence of broadly reactive and group-specific neutralizing epitopes on newly described isolates of Crimean-Congo hemorrhagic fever virus</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -9917,7 +9917,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Crimean-Congo Hemorrhagic Fever Virus in Tortoises and Hyalomma aegyptium Ticks in Thrace, Direct Submission, Turkey: Potential of a Cryptic Transmission Cycle</t>
+          <t>Crimean-Congo Hemorrhagic Fever Virus in Tortoises and Hyalomma aegyptium Ticks in Thrace, Turkey: Potential of a Cryptic Transmission Cycle</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Collection and Screening for CCHFV of Hyalomma marginatum questing unfed adults in Thrace, Direct Submission, Turkey</t>
+          <t>Collection and Screening for CCHFV of Hyalomma marginatum questing unfed adults in Thrace, Turkey</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic analysis and epidemiology of Crimean Congo hemorrhagic fever viruses in Baluchistan province of Pakistan</t>
+          <t>Genetic analysis and epidemiology of Crimean Congo hemorrhagic fever viruses in Baluchistan province of Pakistan</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Assessment of Inhibitors of Pathogenic Crimean-Congo Hemorrhagic Fever Virus Strains Using Virus-Like Particles, Direct Submission</t>
+          <t>Assessment of Inhibitors of Pathogenic Crimean-Congo Hemorrhagic Fever Virus Strains Using Virus-Like Particles</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Co-Delivery Effect of CD24 on the Immunogenicity and Lethal Challenge Protection of a DNA Vector Expressing Nucleocapsid Protein of Crimean Congo Hemorrhagic Fever Virus, Direct Submission</t>
+          <t>Co-Delivery Effect of CD24 on the Immunogenicity and Lethal Challenge Protection of a DNA Vector Expressing Nucleocapsid Protein of Crimean Congo Hemorrhagic Fever Virus</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2008-2009, Direct Submission, Multiple crimean-congo hemorrhagic Fever virus strains are associated with disease outbreaks in Sudan</t>
+          <t>2008-2009, Multiple crimean-congo hemorrhagic Fever virus strains are associated with disease outbreaks in Sudan</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -10461,7 +10461,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Direct Submission, Nosocomial outbreak of Crimean-Congo hemorrhagic fever, Sudan</t>
+          <t>Nosocomial outbreak of Crimean-Congo hemorrhagic fever, Sudan</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -10553,7 +10553,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Direct Submission, Emerging viruses are an underestimated cause of undiagnosed febrile illness in Uganda</t>
+          <t>Emerging viruses are an underestimated cause of undiagnosed febrile illness in Uganda</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -10639,11 +10639,7 @@
           <t>Ashraf S., Burton C., Carmichael S., Filipe A., Love H., Richards K., Roddy S., Smollett K., Summers S., Thomson E., Tong L.</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>MRC Centre for Virus Research, 464 Bearsden Road, 464 Bearsden road, Glasgow G61 1QH, United Kingdom, University of Glasgow</t>
@@ -10729,7 +10725,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Direct Submission, Human cases of CCHFV in Oman 2012-2014</t>
+          <t>Human cases of CCHFV in Oman 2012-2014</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -10817,7 +10813,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever nosocomial infection in a immunosuppressed patient, Direct Submission, Pakistan: case report and virological investigation</t>
+          <t>Crimean-Congo hemorrhagic fever nosocomial infection in a immunosuppressed patient, Pakistan: case report and virological investigation</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -10909,7 +10905,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Development of a Real-Time RT-PCR Assay for the Detection of Crimean-Congo Haemorrhagic Fever Virus, Development of a Real-Time RT-PCR Assay for the Detection of Crimean-Congo Hemorrhagic Fever Virus, Direct Submission</t>
+          <t>Development of a Real-Time RT-PCR Assay for the Detection of Crimean-Congo Haemorrhagic Fever Virus, Development of a Real-Time RT-PCR Assay for the Detection of Crimean-Congo Hemorrhagic Fever Virus</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -11001,7 +10997,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2015, Direct Submission, Investigation of an isolated case of human Crimean-Congo hemorrhagic fever in Central Uganda</t>
+          <t>2015, Investigation of an isolated case of human Crimean-Congo hemorrhagic fever in Central Uganda</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -11093,7 +11089,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Crimean-Congo Hemorrhagic Fever in Uganda 2013-2019, Direct Submission</t>
+          <t>Crimean-Congo Hemorrhagic Fever in Uganda 2013-2019</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -11181,7 +11177,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>An isolate of CCHF virus from an Iranian patient in North of Iran, Direct Submission</t>
+          <t>An isolate of CCHF virus from an Iranian patient in North of Iran</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -11269,7 +11265,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Direct Submission, Whole Genome Sequencing of Crimean-Congo Hemorrhagic Fever Orthonairovirus in Iran</t>
+          <t>Whole Genome Sequencing of Crimean-Congo Hemorrhagic Fever Orthonairovirus in Iran</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -11357,7 +11353,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Direct Submission, First Whole Genome Isolation of Crimean-Congo Haemorrhagic Fever Virus (CCHFV) in Tick Species within Ghana</t>
+          <t>First Whole Genome Isolation of Crimean-Congo Haemorrhagic Fever Virus (CCHFV) in Tick Species within Ghana</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -11445,7 +11441,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Direct Submission, Phylogenetic study on Crimean-Congo hemorrhagic fever virus obtained from human cases in the northern Iran, Phylogeny of tick-derived Crimean-Congo hemorrhagic fever virus strains in Iran</t>
+          <t>Phylogenetic study on Crimean-Congo hemorrhagic fever virus obtained from human cases in the northern Iran, Phylogeny of tick-derived Crimean-Congo hemorrhagic fever virus strains in Iran</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -11537,7 +11533,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2023, Direct Submission, Orthonairovirus haemorrhagiae in North Macedonia</t>
+          <t>2023, Orthonairovirus haemorrhagiae in North Macedonia</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -11625,7 +11621,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Direct Submission, Severe Undifferentiated Febrile Illness Outbreaks in the Federal Republic of Sudan: A Retrospective Epidemiological &amp; Diagnostic Cohort Study</t>
+          <t>Severe Undifferentiated Febrile Illness Outbreaks in the Federal Republic of Sudan: A Retrospective Epidemiological &amp; Diagnostic Cohort Study</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -11713,7 +11709,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Direct Submission, Northeastern Nigeria, Serological and virological evidence of Crimean-Congo Haemorrhagic Fever virus circulation in the human population of Borno state</t>
+          <t>Northeastern Nigeria, Serological and virological evidence of Crimean-Congo Haemorrhagic Fever virus circulation in the human population of Borno state</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -11801,7 +11797,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Direct Submission, The Prevalence and Genetic Variants of the CCHF Virus Circulating among Ticks in the Southern Regions of Kazakhstan</t>
+          <t>The Prevalence and Genetic Variants of the CCHF Virus Circulating among Ticks in the Southern Regions of Kazakhstan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -11893,7 +11889,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Direct Submission, Species diversity of ixodid ticks feeding on humans in Amasya, Turkey: seasonal abundance and presence of Crimean-Congo hemorrhagic fever virus</t>
+          <t>Species diversity of ixodid ticks feeding on humans in Amasya, Turkey: seasonal abundance and presence of Crimean-Congo hemorrhagic fever virus</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -11985,7 +11981,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Direct Submission, Prevalence of Crimean Congo Hemorrhagic Fever Virus (CCHFV) in Ixodid Ticks in a Hyper Endemic Region in Turkey</t>
+          <t>Prevalence of Crimean Congo Hemorrhagic Fever Virus (CCHFV) in Ixodid Ticks in a Hyper Endemic Region in Turkey</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -12073,7 +12069,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic relationship among southern African Crimean-Congo hemorrhagic fever virus isolates and evidence for occurrence of reassortment</t>
+          <t>Genetic relationship among southern African Crimean-Congo hemorrhagic fever virus isolates and evidence for occurrence of reassortment</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -12161,7 +12157,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular epidemiology of African and Asian Crimean-Congo haemorrhagic fever isolates</t>
+          <t>Molecular epidemiology of African and Asian Crimean-Congo haemorrhagic fever isolates</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -12253,7 +12249,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Direct Submission, Nucleoprotein gene heterogeneity among South African Crimean-Congo hemorrhagic fever virus isolates</t>
+          <t>Nucleoprotein gene heterogeneity among South African Crimean-Congo hemorrhagic fever virus isolates</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -12341,7 +12337,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2012, Crimean-Congo Hemorrhagic Fever Virus Clades V and VI (Europe 1 and 2) in Ticks in Kosovo, Direct Submission</t>
+          <t>2012, Crimean-Congo Hemorrhagic Fever Virus Clades V and VI (Europe 1 and 2) in Ticks in Kosovo</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -12433,7 +12429,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2014, Direct Submission, Genomic Characterization of Crimean-Congo Hemorrhagic Fever Virus in Hyalomma Tick from Spain</t>
+          <t>2014, Genomic Characterization of Crimean-Congo Hemorrhagic Fever Virus in Hyalomma Tick from Spain</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -12525,7 +12521,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2019, Crimean-Congo Hemorrhagic Fever Virus Endemicity in United Arab Emirates, Direct Submission</t>
+          <t>2019, Crimean-Congo Hemorrhagic Fever Virus Endemicity in United Arab Emirates</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -12617,7 +12613,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Association of Dromedary Camels and Camel Ticks with Reassortant Crimean-Congo Hemorrhagic Fever Virus, Direct Submission, United Arab Emirates</t>
+          <t>Association of Dromedary Camels and Camel Ticks with Reassortant Crimean-Congo Hemorrhagic Fever Virus, United Arab Emirates</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -12709,7 +12705,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Direct Submission, Sequence analysis of Crimean-Congo hemorrhagic fever virus between 2006-2008 in Turkey</t>
+          <t>Sequence analysis of Crimean-Congo hemorrhagic fever virus between 2006-2008 in Turkey</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -12797,7 +12793,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>A cluster of inter-human transmission of Crimean-Congo hemorrhagic fever in south-western Bulgaria, Direct Submission</t>
+          <t>A cluster of inter-human transmission of Crimean-Congo hemorrhagic fever in south-western Bulgaria</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -12885,7 +12881,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Crimean-Congo Hemorrhagic Fever Virus mRNA for Nucleocapsid (NP gene), Direct Submission, S Segment</t>
+          <t>Crimean-Congo Hemorrhagic Fever Virus mRNA for Nucleocapsid (NP gene), S Segment</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -12973,7 +12969,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic characterization of M segments</t>
+          <t>Genetic characterization of M segments</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -13059,11 +13055,7 @@
           <t>Atkinson B., Brooks T., Carroll M., Chamberlain J., Hewson R., Latham J., Logue C., Osborne J., Vipond R.</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
           <t>Research, Health Protection Agency - Porton, Manor Farm Road, Salisbury, UK, Wiltshire SP4 0JG</t>
@@ -13147,11 +13139,7 @@
           <t>Atkinson B., Brooks T., Carroll M., Chamberlain J., Hewson R., Latham J., Logue C., Osborne J., Vipond R.</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
           <t>Virology and Pathogenesis, Centre for Emergency Preparedness and Response, HPA Porton Down, Salisbury, UK, Wiltshire SP4 0JG</t>
@@ -13237,7 +13225,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Direct Submission, Methods for sequencing L segments of CCHF viruses</t>
+          <t>Methods for sequencing L segments of CCHF viruses</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -13325,7 +13313,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic characterization of African M segments of CCHF virus</t>
+          <t>Genetic characterization of African M segments of CCHF virus</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -13413,7 +13401,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic diversity of Crimean-Congo hemorrhagic fever virus strains from Iran</t>
+          <t>Genetic diversity of Crimean-Congo hemorrhagic fever virus strains from Iran</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -13501,7 +13489,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Direct Submission, First phylogenetic analysis of a Crimean-Congo hemorrhagic fever virus genome in naturally infected Rhipicephalus appendiculatus ticks (Acari: Ixodidae)</t>
+          <t>First phylogenetic analysis of a Crimean-Congo hemorrhagic fever virus genome in naturally infected Rhipicephalus appendiculatus ticks (Acari: Ixodidae)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -13593,7 +13581,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular Epidemiology of Crimean-Congo Hemorrhagic Fever Virus Genome Isolates of Ticks from Hamadan Province of Iran</t>
+          <t>Molecular Epidemiology of Crimean-Congo Hemorrhagic Fever Virus Genome Isolates of Ticks from Hamadan Province of Iran</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -13679,11 +13667,7 @@
           <t>Bouzari S., Chinikar S., Jalali T., Mostafavi E., Shah-hosseini N., Shokrgozar M.</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
         <is>
           <t>Arboviruses and Viral Haemorrhagic Fevers Laboratory (National Ref. Lab), 69 Pasteur Ave, Iran, Pasteur Institute of Iran, Tehran, Tehran 1316943551</t>
@@ -13769,7 +13753,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Assessment of Recombination in the S-segment Genome of Crimean-Congo Hemorrhagic Fever Virus in Iran, Direct Submission</t>
+          <t>Assessment of Recombination in the S-segment Genome of Crimean-Congo Hemorrhagic Fever Virus in Iran</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -13861,7 +13845,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Crimean-Congo Hemorrhagic Fever Virus in ticks and livestock: a Molecular and Seroepidemiological Survey in Borderline of Iran-Pakistan-Gulf of Oman Littoral, Direct Submission</t>
+          <t>Crimean-Congo Hemorrhagic Fever Virus in ticks and livestock: a Molecular and Seroepidemiological Survey in Borderline of Iran-Pakistan-Gulf of Oman Littoral</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -13949,7 +13933,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Crimean-congo hemorrhagic fever virus in ticks from imported livestock, Direct Submission, Egypt</t>
+          <t>Crimean-congo hemorrhagic fever virus in ticks from imported livestock, Egypt</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -14041,7 +14025,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Direct Submission, Tick-borne arbovirus and rickettsiae surveillance at livestock markets and slaughterhouses in western Kenya: Implications for dissemination and human infection</t>
+          <t>Tick-borne arbovirus and rickettsiae surveillance at livestock markets and slaughterhouses in western Kenya: Implications for dissemination and human infection</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -14129,7 +14113,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DNA Sequence based identification and characterization of the Crimean-Congo Hemorrhagic Fever Virus, Direct Submission</t>
+          <t>DNA Sequence based identification and characterization of the Crimean-Congo Hemorrhagic Fever Virus</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -14217,7 +14201,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Direct Submission, Fatal outcome of coinfection of crimean-congo hemorrhagic Fever and malaria</t>
+          <t>Fatal outcome of coinfection of crimean-congo hemorrhagic Fever and malaria</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -14309,7 +14293,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Direct Submission, Recovery of complete genome sequences of Crimean-Congo haemorrhagic fever virus through targeted next-generation sequencing approaches: a comparative study between multiplex tiling PCR and probe hybridization capture</t>
+          <t>Recovery of complete genome sequences of Crimean-Congo haemorrhagic fever virus through targeted next-generation sequencing approaches: a comparative study between multiplex tiling PCR and probe hybridization capture</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -14397,7 +14381,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Complete Genome Sequencing of Crimean-Congo Haemorrhagic Fever Virus (CCHFV) Directly from Clinical Samples: A Comparative Study Between Targeted Enrichment and Metagenomic Approaches, Direct Submission</t>
+          <t>Complete Genome Sequencing of Crimean-Congo Haemorrhagic Fever Virus (CCHFV) Directly from Clinical Samples: A Comparative Study Between Targeted Enrichment and Metagenomic Approaches</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -14485,7 +14469,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>A neonatal death associated with Crimean-Congo hemorrhagic fever (Republic of Kalmykia, Direct Submission, June 2016), Russia</t>
+          <t>A neonatal death associated with Crimean-Congo hemorrhagic fever (Republic of Kalmykia, June 2016), Russia</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -14577,7 +14561,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Deposition of the nucleotide sequence of S, Deposition of the nucleotide sequences of S, Direct Submission, M, and L segments of CCHF virus isolates derived from human blood serum of the patient in the South Kazakhstan region, and L segments of CCHF virus obtained by sequencing of samples from ticks of the South Kazakhstan region</t>
+          <t>Deposition of the nucleotide sequence of S, Deposition of the nucleotide sequences of S, M, and L segments of CCHF virus isolates derived from human blood serum of the patient in the South Kazakhstan region, and L segments of CCHF virus obtained by sequencing of samples from ticks of the South Kazakhstan region</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -14665,7 +14649,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Crimean-congo hemorrhagic Fever virus genomics and global diversity, Direct Submission</t>
+          <t>Crimean-congo hemorrhagic Fever virus genomics and global diversity</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -14757,7 +14741,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Direct Submission, Generic amplification and next generation sequencing reveal Crimean-Congo hemorrhagic fever virus AP92-like strain and distinct tick phleboviruses in Anatolia, Turkey</t>
+          <t>Generic amplification and next generation sequencing reveal Crimean-Congo hemorrhagic fever virus AP92-like strain and distinct tick phleboviruses in Anatolia, Turkey</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -14849,7 +14833,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Direct Submission, Several Tick-Borne Pathogenic Viruses in Circulation in Anatolia, Turkey</t>
+          <t>Several Tick-Borne Pathogenic Viruses in Circulation in Anatolia, Turkey</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -14941,7 +14925,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever in Kosovo, Direct Submission</t>
+          <t>Crimean-Congo hemorrhagic fever in Kosovo</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -15033,7 +15017,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Direct Submission, The complete genome sequence of a Crimean-Congo hemorrhagic fever virus isolated from an endemic region in Kosovo</t>
+          <t>The complete genome sequence of a Crimean-Congo hemorrhagic fever virus isolated from an endemic region in Kosovo</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -15125,7 +15109,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Direct Submission, Novel one-step real-time RT-PCR assay for rapid and specific diagnosis of Crimean-Congo hemorrhagic fever encountered in the Balkans</t>
+          <t>Novel one-step real-time RT-PCR assay for rapid and specific diagnosis of Crimean-Congo hemorrhagic fever encountered in the Balkans</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -15215,11 +15199,7 @@
           <t>Durmaz R., Ertek M., Guldemir D., Kalaycioglu A., Korukluoglu G.</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
           <t>Molecular Microbiology Research and Application Laboratory, Ankara, Ankara 06100, Saglik mah. Adnan Saygun cad. No. 55, Turkey, Turkish National Public Health Agency</t>
@@ -15305,7 +15285,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic diversity of Crimean-Congo hemorrhagic fever viruses in Turkey, Genetic diversity of Crimean-congo hemorrhagic fever viruses in Turkey, Lack of genetic diversity in Crimean-Congo hemorrhagic fever viruses in Turkey: assessment of present and future patterns of disease</t>
+          <t>Genetic diversity of Crimean-Congo hemorrhagic fever viruses in Turkey, Genetic diversity of Crimean-congo hemorrhagic fever viruses in Turkey, Lack of genetic diversity in Crimean-Congo hemorrhagic fever viruses in Turkey: assessment of present and future patterns of disease</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -15395,11 +15375,7 @@
           <t>Durmaz R., Ertek M., Kalaycioglu A., Korukluoglu G., Ozkul A., Uyar Y.</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr">
         <is>
           <t>Refik Saydam National Public Health Agency, Ankara 06100, Cemal Gursel cad. No. 18 Sihhiye, Molecular Microbiology Research and Application Laboratory, Turkey</t>
@@ -15485,7 +15461,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic diversity of Crimean-Congo hemorrhagic fever viruses in Turkey, Genetic diversity of Crimean-congo hemorrhagic fever viruses in Turkey, Lack of genetic diversity in Crimean-Congo hemorrhagic fever viruses in Turkey: assessment of present and future patterns of disease</t>
+          <t>Genetic diversity of Crimean-Congo hemorrhagic fever viruses in Turkey, Genetic diversity of Crimean-congo hemorrhagic fever viruses in Turkey, Lack of genetic diversity in Crimean-Congo hemorrhagic fever viruses in Turkey: assessment of present and future patterns of disease</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -15577,7 +15553,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic diversity of Crimean-Congo hemorrhagic fever viruses in Turkey, Genetic diversity of Crimean-congo hemorrhagic fever viruses in Turkey, Lack of genetic diversity in Crimean-Congo hemorrhagic fever viruses in Turkey: assessment of present and future patterns of disease</t>
+          <t>Genetic diversity of Crimean-Congo hemorrhagic fever viruses in Turkey, Genetic diversity of Crimean-congo hemorrhagic fever viruses in Turkey, Lack of genetic diversity in Crimean-Congo hemorrhagic fever viruses in Turkey: assessment of present and future patterns of disease</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -15667,11 +15643,7 @@
           <t>Durmaz R., Ertek M., Kalaycioglu A., Korukluoglu G., Ozkul A., Unaldi O., Uyar Y.</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
           <t>Molecular Microbiology, Ankara 06100, Refik Saydam National Public Health Agency, Research and Application Laboratory, Turkey</t>
@@ -15755,11 +15727,7 @@
           <t>Durmaz R., Ertek M., Kalaycioglu A., Korukluoglu G.</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr">
         <is>
           <t>Molecular Microbiology Research and Application Laboratory, Ankara, Ankara 06100, Saglik mah. Adnan Saygun cad. No. 55, Turkey, Turkish National Public Health Agency</t>
@@ -15845,7 +15813,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic analysis of Crimean-Congo hemorrhagic fever virus isolates in 2012</t>
+          <t>Genetic analysis of Crimean-Congo hemorrhagic fever virus isolates in 2012</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -15933,7 +15901,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>A Nosocomial Transmission of Crimean-Congo Hemorrhagic Fever to an Attending Physician in North Kordufan, Direct Submission, Sudan</t>
+          <t>A Nosocomial Transmission of Crimean-Congo Hemorrhagic Fever to an Attending Physician in North Kordufan, Sudan</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -16025,7 +15993,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Direct Submission, Kosovo, Viral metagenomics, genetic and evolutionary characteristics of Crimean-Congo hemorrhagic fever orthonairovirus in humans</t>
+          <t>Kosovo, Viral metagenomics, genetic and evolutionary characteristics of Crimean-Congo hemorrhagic fever orthonairovirus in humans</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -16117,7 +16085,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Direct Submission, Multiple orthonairoviruses including Crimean-Congo hemorrhagic fever virus, Tamdy virus and the novel Meram virus in Anatolia</t>
+          <t>Multiple orthonairoviruses including Crimean-Congo hemorrhagic fever virus, Tamdy virus and the novel Meram virus in Anatolia</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -16209,7 +16177,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Direct Submission, Impact of nanopore-based metagenome sequencing on tick-borne virus detection</t>
+          <t>Impact of nanopore-based metagenome sequencing on tick-borne virus detection</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -16301,7 +16269,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Antibody responses and viral load in patients with Crimean-Congo hemorrhagic fever: a comprehensive analysis during the early stages of the infection, Direct Submission</t>
+          <t>Antibody responses and viral load in patients with Crimean-Congo hemorrhagic fever: a comprehensive analysis during the early stages of the infection</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -16393,7 +16361,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular epidemiology of Crimean-Congo hemorrhagic fever virus in Kosovo, Molecular epidemiology of crimean-congo hemorrhagic Fever virus in kosovo</t>
+          <t>Molecular epidemiology of Crimean-Congo hemorrhagic fever virus in Kosovo, Molecular epidemiology of crimean-congo hemorrhagic Fever virus in kosovo</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -16485,7 +16453,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Direct Submission, Prevalence of crimean-congo hemorrhagic Fever virus in healthy population, livestock and ticks in kosovo</t>
+          <t>Prevalence of crimean-congo hemorrhagic Fever virus in healthy population, livestock and ticks in kosovo</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -16577,7 +16545,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Characterization, China, Direct Submission, Isolation, and Phylogenetic Analysis of Two New Crimean-Congo Hemorrhagic Fever Virus Strains from the Northern Region of Xinjiang Province</t>
+          <t>Characterization, China, Isolation, and Phylogenetic Analysis of Two New Crimean-Congo Hemorrhagic Fever Virus Strains from the Northern Region of Xinjiang Province</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -16669,7 +16637,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>An Outbreak of Crimean Congo Hemorrhagic Fever (CCHF) in South West of Iran, An Outbreak of Crimean-Congo Hemorrhagic Fever in South East of Iran, Direct Submission, June 2016, May 2016</t>
+          <t>An Outbreak of Crimean Congo Hemorrhagic Fever (CCHF) in South West of Iran, An Outbreak of Crimean-Congo Hemorrhagic Fever in South East of Iran, June 2016, May 2016</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -16757,7 +16725,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Crimean-Congo Hemorrhagic Fever due to Consumption of Raw Meat: A Case Reports From East-North of Iran, Direct Submission</t>
+          <t>Crimean-Congo Hemorrhagic Fever due to Consumption of Raw Meat: A Case Reports From East-North of Iran</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -16849,7 +16817,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Crimean Congo Hemorrhagic Fever in Qeshm Island, Direct Submission, Eid Al Adha (Eid Qorban) 2017, Iran</t>
+          <t>Crimean Congo Hemorrhagic Fever in Qeshm Island, Eid Al Adha (Eid Qorban) 2017, Iran</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -16935,11 +16903,7 @@
           <t>Dai X., Feng C., Hang C., Meng W., Sun S., Wang X., Zhang Y.</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr">
         <is>
           <t>The Center for Disease Control and Prevention of Xinjiang Uygur Autonomous Region, College of Life Science and Technology, P.R. China, Urumuqi 830046, Xinjiang Key Lab of Biological Resources and Genetic Engineering, Xinjiang University</t>
@@ -17025,7 +16989,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Combination of RT-PCR and proteomics for the identification of Crimean-Congo hemorrhagic fever virus in ticks, Direct Submission</t>
+          <t>Combination of RT-PCR and proteomics for the identification of Crimean-Congo hemorrhagic fever virus in ticks</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -17117,7 +17081,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever in European part of Turkey: genetic analysis of the virus strains from ticks and a seroepidemiological study in humans, Direct Submission, Molecular analysis of CCHF virus strains from ticks in Thrace, Turkey</t>
+          <t>Crimean-Congo hemorrhagic fever in European part of Turkey: genetic analysis of the virus strains from ticks and a seroepidemiological study in humans, Molecular analysis of CCHF virus strains from ticks in Thrace, Turkey</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -17209,7 +17173,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Direct Submission, Re-emergence of Crimean-Congo hemorrhagic fever virus in Central Africa</t>
+          <t>Re-emergence of Crimean-Congo hemorrhagic fever virus in Central Africa</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -17301,7 +17265,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Direct Submission, Next-generation sequencing of southern African Crimean-Congo haemorrhagic fever virus isolates reveals a high frequency of M segment reassortment</t>
+          <t>Next-generation sequencing of southern African Crimean-Congo haemorrhagic fever virus isolates reveals a high frequency of M segment reassortment</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -17393,7 +17357,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>China, Direct Submission, Identification and phylogenetic analysis of the latest isolated Crimean-Congohemorrhagic fever virus in Xinjiang</t>
+          <t>China, Identification and phylogenetic analysis of the latest isolated Crimean-Congohemorrhagic fever virus in Xinjiang</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -17481,7 +17445,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Direct Submission, Favipiravir (T-705) but not ribavirin is effective against two distinct strains of Crimean-Congo hemorrhagic fever virus in mice</t>
+          <t>Favipiravir (T-705) but not ribavirin is effective against two distinct strains of Crimean-Congo hemorrhagic fever virus in mice</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -17573,7 +17537,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Direct Submission, Immunocompetent Mouse Model for Crimean-Congo Hemorrhagic Fever Virus</t>
+          <t>Immunocompetent Mouse Model for Crimean-Congo Hemorrhagic Fever Virus</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -17661,7 +17625,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever virus genome L RNA segment and encoded protein, Direct Submission</t>
+          <t>Crimean-Congo hemorrhagic fever virus genome L RNA segment and encoded protein</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -17753,7 +17717,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Direct Submission, The high genetic variation of viruses of the genus Nairovirus reflects the diversity of their predominant tick hosts</t>
+          <t>The high genetic variation of viruses of the genus Nairovirus reflects the diversity of their predominant tick hosts</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -17841,7 +17805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>A single mutation in Crimean-Congo hemorrhagic fever virus discovered in ticks impairs infectivity in human cells, Direct Submission</t>
+          <t>A single mutation in Crimean-Congo hemorrhagic fever virus discovered in ticks impairs infectivity in human cells</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -17933,7 +17897,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Detection of autochthonic virus strain responsible for outbreak of Crimean-Congo haemorrhagic fever in North Macedonia, Direct Submission, Increased clinical vigilance identified additional human cases and genetically diverse isolates of Crimean-Congo Haemorrhagic Fever Virus in North Macedonia, July to August 2023</t>
+          <t>Detection of autochthonic virus strain responsible for outbreak of Crimean-Congo haemorrhagic fever in North Macedonia, Increased clinical vigilance identified additional human cases and genetically diverse isolates of Crimean-Congo Haemorrhagic Fever Virus in North Macedonia, July to August 2023</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -18021,7 +17985,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Crimean-ongo haemorrhagic fever among healthcare workers in Iran 2000-2018, Direct Submission, a report of National Reference Laboratory</t>
+          <t>Crimean-ongo haemorrhagic fever among healthcare workers in Iran 2000-2018, a report of National Reference Laboratory</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -18109,7 +18073,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Direct Submission, Serologic and molecular evidence for circulation of Crimean-Congo hemorrhagic fever virus in ticks and cattle in Zambia</t>
+          <t>Serologic and molecular evidence for circulation of Crimean-Congo hemorrhagic fever virus in ticks and cattle in Zambia</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -18201,7 +18165,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Direct Submission, Investigation of genetic variations of Crimean-Congo Hemorrhagic Fever viruses in Turkey based on whole genome sequences and examination of relationship between posible variations and the course of the disease, Investigation of genetic variations of Crimean-Congo hemorrhagic Fever viruses in Turkey based on whole genome sequences and examination of relationship between posible variations and the course of the disease, Investigation of genetic variations of Crimean-Congo hemorrhagic fever viruses in Turkey based on whole genome sequences and examination of relationship between posible variations and the course of the disease, Investigation of genetic variations of crimean-congo hemorrhagic fever viruses in Turkey based on whole genome sequences and examination of relationship between posible variations and the course of the disease</t>
+          <t>Investigation of genetic variations of Crimean-Congo Hemorrhagic Fever viruses in Turkey based on whole genome sequences and examination of relationship between posible variations and the course of the disease, Investigation of genetic variations of Crimean-Congo hemorrhagic Fever viruses in Turkey based on whole genome sequences and examination of relationship between posible variations and the course of the disease, Investigation of genetic variations of Crimean-Congo hemorrhagic fever viruses in Turkey based on whole genome sequences and examination of relationship between posible variations and the course of the disease, Investigation of genetic variations of crimean-congo hemorrhagic fever viruses in Turkey based on whole genome sequences and examination of relationship between posible variations and the course of the disease</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -18287,11 +18251,7 @@
           <t>Durmaz R., Ertek M., Kalaycioglu A., Korukluoglu G., Ozkul A., Uyar Y.</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr">
         <is>
           <t>Molecular Microbiology Research and Application Laboratory, Ankara 06100, Cemal Gursel Caddesi, No. 18 Sihhiye, Refik Saydam National Public Health Agency, Turkey</t>
@@ -18377,7 +18337,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Direct Submission, Investigation of genetic variations of Crimean-Congo Hemorrhagic Fever viruses in Turkey based on whole genome sequences and examination of relationship between posible variations and the course of the disease. This study was funded by the Scientific and Technological Research Council of Turkey (TUBITAK grant number SBAG 118R018)</t>
+          <t>Investigation of genetic variations of Crimean-Congo Hemorrhagic Fever viruses in Turkey based on whole genome sequences and examination of relationship between posible variations and the course of the disease. This study was funded by the Scientific and Technological Research Council of Turkey (TUBITAK grant number SBAG 118R018)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -18465,7 +18425,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic analysis of Crimean-Congo hemorrhagic fever virus isolated recently from different regions of Bulgaria</t>
+          <t>Genetic analysis of Crimean-Congo hemorrhagic fever virus isolated recently from different regions of Bulgaria</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -18553,7 +18513,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Direct Submission, Novel molecular beacon probe-based real-time rt-PCR assay for diagnosis of crimean-congo hemorrhagic Fever encountered in India, Phylogenetic analysis of Indian Crimean-Congo hemorrhagic fever virus</t>
+          <t>Novel molecular beacon probe-based real-time rt-PCR assay for diagnosis of crimean-congo hemorrhagic Fever encountered in India, Phylogenetic analysis of Indian Crimean-Congo hemorrhagic fever virus</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -18645,7 +18605,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Direct Submission, Investigation of an outbreak of Crimean-Congo hemorrhagic fever virus</t>
+          <t>Investigation of an outbreak of Crimean-Congo hemorrhagic fever virus</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -18733,7 +18693,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Crimean-Congo Hemorrhagic Fever in Turkey, Direct Submission</t>
+          <t>Crimean-Congo Hemorrhagic Fever in Turkey</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -18821,7 +18781,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>AP92-like Crimean-Congo Hemorrhagic Fever Virus in Hyalomma aegyptium Ticks, Algeria, Direct Submission</t>
+          <t>AP92-like Crimean-Congo Hemorrhagic Fever Virus in Hyalomma aegyptium Ticks, Algeria</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -18913,7 +18873,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic diversity of Crimean-Congo Hemorraghic fever virus in Russia</t>
+          <t>Genetic diversity of Crimean-Congo Hemorraghic fever virus in Russia</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -19001,7 +18961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Direct Submission, Genome Sequences of eight Crimean-Congo hemorrhagic fever virus strains</t>
+          <t>Genome Sequences of eight Crimean-Congo hemorrhagic fever virus strains</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -19089,7 +19049,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Characteristics of Crimean-Congo hemorrhagic fever virus circulating in Russia and Central Asia, Crimean-Congo hemorrhagic fever virus S segment, Direct Submission, Genetic analysis of wild-type Crimean-Congo hemorrhagic fever virus in Russia and Central Asia, Genetic variability of Crimean-Congo hemorrhagic fever virus in Russia and Middle Asia, Partial Genetic Characterization of different strain of C-CHF virus circulating in the territory of NIS countries, Partial genetic characterization of different strain of C-CHF virus circulating in the territory of NIS countries</t>
+          <t>Characteristics of Crimean-Congo hemorrhagic fever virus circulating in Russia and Central Asia, Crimean-Congo hemorrhagic fever virus S segment, Genetic analysis of wild-type Crimean-Congo hemorrhagic fever virus in Russia and Central Asia, Genetic variability of Crimean-Congo hemorrhagic fever virus in Russia and Middle Asia, Partial Genetic Characterization of different strain of C-CHF virus circulating in the territory of NIS countries, Partial genetic characterization of different strain of C-CHF virus circulating in the territory of NIS countries</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -19181,7 +19141,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Direct Submission, Role of migratory birds in spreading Crimean-Congo hemorrhagic fever, Turkey</t>
+          <t>Role of migratory birds in spreading Crimean-Congo hemorrhagic fever, Turkey</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -19273,7 +19233,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic characterization of the S and M segments of Crimean Congo hemorrhagic fever virus strains isolated in Iran</t>
+          <t>Genetic characterization of the S and M segments of Crimean Congo hemorrhagic fever virus strains isolated in Iran</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -19361,7 +19321,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Direct Submission, Identification of diverse viruses in upper respiratory samples in dromedary camels from United Arab Emirates</t>
+          <t>Identification of diverse viruses in upper respiratory samples in dromedary camels from United Arab Emirates</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -19449,7 +19409,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Characteristics of Crimean-Congo hemorrhagic fever virus circulating in Russia and Central Asia, Crimean-Congo hemorrhagic fever virus S segment, Direct Submission, Genetic variability of Crimean-Congo hemorrhagic fever virus in Russia and Middle Asia</t>
+          <t>Characteristics of Crimean-Congo hemorrhagic fever virus circulating in Russia and Central Asia, Crimean-Congo hemorrhagic fever virus S segment, Genetic variability of Crimean-Congo hemorrhagic fever virus in Russia and Middle Asia</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -19541,7 +19501,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Direct Submission, Phylogeography of Crimean Congo Hemorrhagic Fever Virus</t>
+          <t>Phylogeography of Crimean Congo Hemorrhagic Fever Virus</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -19633,7 +19593,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Detection of a non-fatal case of Crimean-Congo haemorrhagic fever imported into the UK (ex Bulgaria), Direct Submission, June 2014</t>
+          <t>Detection of a non-fatal case of Crimean-Congo haemorrhagic fever imported into the UK (ex Bulgaria), June 2014</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -19721,7 +19681,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>China, Direct Submission, Genetic characterization of the M RNA segment of Crimean Congo hemorrhagic fever virus strains</t>
+          <t>China, Genetic characterization of the M RNA segment of Crimean Congo hemorrhagic fever virus strains</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -19813,7 +19773,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular epidemiology and phylogeny of Crimean-Congo haemorrhagic fever (CCHF) virus of Ixodid ticks in Khorasan-e-Razavi province of Iran, Molecular epidemiology and phylogeny of Crimean-Congo hemorrhagic fever (CCHF) virus of Ixodid ticks in Khorasan-e-Razavi province of Iran</t>
+          <t>Molecular epidemiology and phylogeny of Crimean-Congo haemorrhagic fever (CCHF) virus of Ixodid ticks in Khorasan-e-Razavi province of Iran, Molecular epidemiology and phylogeny of Crimean-Congo hemorrhagic fever (CCHF) virus of Ixodid ticks in Khorasan-e-Razavi province of Iran</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -19901,7 +19861,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular epidemiology and phylogeny of Crimean-Congo haemorrhagic fever (CCHF) virus of Ixodid ticks in Khorasan-e-Razavi province of Iran, Molecular epidemiology and phylogeny of Crimean-Congo hemorrhagic fever (CCHF) virus of Ixodid ticks in Khorasan-e-Razavi province of Iran</t>
+          <t>Molecular epidemiology and phylogeny of Crimean-Congo haemorrhagic fever (CCHF) virus of Ixodid ticks in Khorasan-e-Razavi province of Iran, Molecular epidemiology and phylogeny of Crimean-Congo hemorrhagic fever (CCHF) virus of Ixodid ticks in Khorasan-e-Razavi province of Iran</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -19989,7 +19949,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Direct Submission, Relationship between crimean-congo hemorrhagic Fever virus strains circulating in iran and Turkey: possibilities for transborder transmission</t>
+          <t>Relationship between crimean-congo hemorrhagic Fever virus strains circulating in iran and Turkey: possibilities for transborder transmission</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -20081,7 +20041,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2010, Direct Submission, Iran, Molecular phylogenetic study on S-segment of Crimean-Congo Hemorrhagic Fever (CCHF) virus genome isolated from ticks in in West Azerbaiajan and Sistan and Baluchestan provinces</t>
+          <t>2010, Iran, Molecular phylogenetic study on S-segment of Crimean-Congo Hemorrhagic Fever (CCHF) virus genome isolated from ticks in in West Azerbaiajan and Sistan and Baluchestan provinces</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -20169,7 +20129,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Direct Submission, First detection of Crimean-Congo haemorrhagic fever virus in tick from migratory birds in Italy</t>
+          <t>First detection of Crimean-Congo haemorrhagic fever virus in tick from migratory birds in Italy</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -20257,7 +20217,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Detection of human antibodies to Crimean-Congo haemorrhagic fever virus using expressed viral nucleocapsid protein, Direct Submission</t>
+          <t>Detection of human antibodies to Crimean-Congo haemorrhagic fever virus using expressed viral nucleocapsid protein</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -20349,7 +20309,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic variation in the nucleoprotein gene of Crimean-Congo haemorrhagic fever virus</t>
+          <t>Genetic variation in the nucleoprotein gene of Crimean-Congo haemorrhagic fever virus</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -20437,7 +20397,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Direct Submission, Partial sequence of CCHF virus L segment</t>
+          <t>Partial sequence of CCHF virus L segment</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -20525,7 +20485,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Crimean Congo Hemorrhagic Fever Virus S segment sequence, Direct Submission, strain Matin</t>
+          <t>Crimean Congo Hemorrhagic Fever Virus S segment sequence, strain Matin</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -20613,7 +20573,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Direct Submission, The complete genomic sequence of strain ROS/HUVLV-100, a representative Russian Crimean Congo hemorrhagic fever virus strain</t>
+          <t>The complete genomic sequence of strain ROS/HUVLV-100, a representative Russian Crimean Congo hemorrhagic fever virus strain</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -20705,7 +20665,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>A variable region in the Crimean-Congo hemorrhagic fever virus L segment distinguishes between strains isolated from different geographic regions, Direct Submission</t>
+          <t>A variable region in the Crimean-Congo hemorrhagic fever virus L segment distinguishes between strains isolated from different geographic regions</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -20797,7 +20757,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Complete L segment coding-region sequences of Crimean Congo hemorrhagic fever virus strains from the Russian Federation and Tajikistan, Direct Submission</t>
+          <t>Complete L segment coding-region sequences of Crimean Congo hemorrhagic fever virus strains from the Russian Federation and Tajikistan</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -20889,7 +20849,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Direct Submission, Second natural human infection caused by an AP92-like CCHF virus strain</t>
+          <t>Second natural human infection caused by an AP92-like CCHF virus strain</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -20977,7 +20937,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Direct Submission, The first clinical case due to AP92 like strain of Crimean-Congo Hemorrhagic Fever virus and a field survey</t>
+          <t>The first clinical case due to AP92 like strain of Crimean-Congo Hemorrhagic Fever virus and a field survey</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -21069,7 +21029,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Detection and molecular analysis of Crimean-Congo hemorrhagic fever virus from ticks collected from European part of Turkey (Thrace), Direct Submission</t>
+          <t>Detection and molecular analysis of Crimean-Congo hemorrhagic fever virus from ticks collected from European part of Turkey (Thrace)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -21157,7 +21117,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CCHF in Ardabil, Direct Submission</t>
+          <t>CCHF in Ardabil</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -21245,7 +21205,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>China, Direct Submission, Prevalence and Phylogenetic Analysis of Crimean-Congo Hemorrhagic Fever Virus in Ticks from Different Ecosystems in Xinjiang</t>
+          <t>China, Prevalence and Phylogenetic Analysis of Crimean-Congo Hemorrhagic Fever Virus in Ticks from Different Ecosystems in Xinjiang</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -21337,7 +21297,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>China, Direct Submission, Whole-genome sequencing of Crimean-Congo hemorrhagic fever virus strains circulating in Xinjiang</t>
+          <t>China, Whole-genome sequencing of Crimean-Congo hemorrhagic fever virus strains circulating in Xinjiang</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -21425,7 +21385,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Detection of New Crimean-Congo Hemorrhagic Fever Virus Genotypes in Ticks Feeding on Deer and Wild Boar, Direct Submission, Spain</t>
+          <t>Detection of New Crimean-Congo Hemorrhagic Fever Virus Genotypes in Ticks Feeding on Deer and Wild Boar, Spain</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -21513,7 +21473,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Direct Submission, Health risks associated with argasid ticks, transmitted pathogens and blood parasites in European Griffon vulture (Gyps fulvus) nestlings in Spain</t>
+          <t>Health risks associated with argasid ticks, transmitted pathogens and blood parasites in European Griffon vulture (Gyps fulvus) nestlings in Spain</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -21601,7 +21561,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic diversity of the M RNA segment among Crimean-Congo hemorrhagic fever virus isolates in China</t>
+          <t>Genetic diversity of the M RNA segment among Crimean-Congo hemorrhagic fever virus isolates in China</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -21693,7 +21653,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever virus in Republic of Guinea, Direct Submission</t>
+          <t>Crimean-Congo hemorrhagic fever virus in Republic of Guinea</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -21781,7 +21741,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Autochthonous Crimean-Congo Hemorrhagic Fever in Spain, Direct Submission</t>
+          <t>Autochthonous Crimean-Congo Hemorrhagic Fever in Spain</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -21873,7 +21833,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2011-2015, Direct Submission, Spain, Survey of Crimean-Congo Hemorrhagic Fever Enzootic Focus</t>
+          <t>2011-2015, Spain, Survey of Crimean-Congo Hemorrhagic Fever Enzootic Focus</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -21961,7 +21921,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Direct Submission, Spain, Widespread Detection of Multiple Strains of Crimean-Congo Hemorrhagic Fever Virus in Ticks</t>
+          <t>Spain, Widespread Detection of Multiple Strains of Crimean-Congo Hemorrhagic Fever Virus in Ticks</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -22053,7 +22013,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Direct Submission, Second autochthonous case of CCHF infection by tick bite in Spain (2018). Identification of a new virus circulating in West Europe</t>
+          <t>Second autochthonous case of CCHF infection by tick bite in Spain (2018). Identification of a new virus circulating in West Europe</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -22141,7 +22101,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Direct Submission, Occurrence of the neglected arboviruses in the Astrakhan region of Russia for 2018 season: the development of multiplex PCR assays and analysis of mosquitoes, and human blood sera, ticks</t>
+          <t>Occurrence of the neglected arboviruses in the Astrakhan region of Russia for 2018 season: the development of multiplex PCR assays and analysis of mosquitoes, and human blood sera, ticks</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -22227,11 +22187,7 @@
           <t>Lundkvist A., Mirazimi A., Nilsson M., Plyusnin A., Shinikar S.</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr">
         <is>
           <t>Centre for Microbiological Preparedness, Nobels vag 18, Solna 171 82, Stockholm, Sweden, Swedish Institue for Infectious Disease Control, Swedish Institute for Infectious Disease Control</t>
@@ -22317,7 +22273,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Direct Submission, Outcome of the entomological monitoring for the Crimean-Congo haemorrhagic fever virus in the western and southern regions of Kazakhstan in 2021-2022</t>
+          <t>Outcome of the entomological monitoring for the Crimean-Congo haemorrhagic fever virus in the western and southern regions of Kazakhstan in 2021-2022</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -22405,7 +22361,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>April 2021, Crimean-Congo Hemorrhagic Fever Outbreak in Refugee Settlement during COVID-19 Pandemic, Direct Submission, Uganda</t>
+          <t>April 2021, Crimean-Congo Hemorrhagic Fever Outbreak in Refugee Settlement during COVID-19 Pandemic, Uganda</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -22497,7 +22453,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Complete sequence and phylogenetic characterisation of Crimean-Congo hemorrhagic fever virus from Afghanistan, Direct Submission</t>
+          <t>Complete sequence and phylogenetic characterisation of Crimean-Congo hemorrhagic fever virus from Afghanistan</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -22589,7 +22545,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Direct Submission, Livestock, Transmission dynamics of Crimean Congo Haemorrhagic Fever Virus (CCHFV); Evidence of circulation in Humans, and Rodents in diverse ecologies in Kenya</t>
+          <t>Livestock, Transmission dynamics of Crimean Congo Haemorrhagic Fever Virus (CCHFV); Evidence of circulation in Humans, and Rodents in diverse ecologies in Kenya</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -22677,7 +22633,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Direct Submission, Ticks threatening lineage of Anatolian wild sheep (Ovis gmelinii anatolica) and determination of their tick-borne pathogens</t>
+          <t>Ticks threatening lineage of Anatolian wild sheep (Ovis gmelinii anatolica) and determination of their tick-borne pathogens</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -22769,7 +22725,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever virus in ticks in Turkey, Direct Submission</t>
+          <t>Crimean-Congo hemorrhagic fever virus in ticks in Turkey</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -22857,7 +22813,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Direct Submission, Emergence of Crimean-Congo hemorrhagic fever virus in North Kordufan, Sudan</t>
+          <t>Emergence of Crimean-Congo hemorrhagic fever virus in North Kordufan, Sudan</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -22943,11 +22899,7 @@
           <t>Aktas M., Altay K., Aydin K., Koksal I., Ozdarendeli A., Tonbak S.</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr">
         <is>
           <t>Virology, Elazig 23119, Firat University, Turkey, Veterinary Medicine</t>
@@ -23033,7 +22985,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic analysis of S gene of CCHFV in humans in Turkey</t>
+          <t>Genetic analysis of S gene of CCHFV in humans in Turkey</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -23121,7 +23073,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Direct Submission, The complete genome analysis of Crimean-Congo hemorrhagic fever virus isolated in Turkey</t>
+          <t>The complete genome analysis of Crimean-Congo hemorrhagic fever virus isolated in Turkey</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -23213,7 +23165,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular epidemiology of Crimean-Congo hemorrhagic fever virus in Turkey: Occurrence of local topotype, Molecular epidemiology of Crimean-Congo hemorrhagic fever virus in Turkey: occurrence of local topotype</t>
+          <t>Molecular epidemiology of Crimean-Congo hemorrhagic fever virus in Turkey: Occurrence of local topotype, Molecular epidemiology of Crimean-Congo hemorrhagic fever virus in Turkey: occurrence of local topotype</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -23305,7 +23257,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Direct Submission, Is Crimean-Congo Hemorrhagic Fever Virus Topotype Important in the Possibility of Nosocomial Transmission?</t>
+          <t>Is Crimean-Congo Hemorrhagic Fever Virus Topotype Important in the Possibility of Nosocomial Transmission?</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -23393,7 +23345,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Direct Submission, Investigation of Crimean-Congo Hemorrhagic Fever Virus in Ruminant Species Slaughtered in Some Endemic Provinces in Turkey</t>
+          <t>Investigation of Crimean-Congo Hemorrhagic Fever Virus in Ruminant Species Slaughtered in Some Endemic Provinces in Turkey</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -23481,7 +23433,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Concurrent Crimean-Congo hemorrhagic fever and visceral leishmaniasis in a Turkish girl, Direct Submission</t>
+          <t>Concurrent Crimean-Congo hemorrhagic fever and visceral leishmaniasis in a Turkish girl</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -23573,7 +23525,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever virus lineages Europe 1 and Europe 2 in Bulgarian ticks, Direct Submission</t>
+          <t>Crimean-Congo hemorrhagic fever virus lineages Europe 1 and Europe 2 in Bulgarian ticks</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -23665,7 +23617,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever virus in ticks collected from livestock in Albania, Direct Submission</t>
+          <t>Crimean-Congo hemorrhagic fever virus in ticks collected from livestock in Albania</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -23757,7 +23709,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever in Albania-2001, Direct Submission</t>
+          <t>Crimean-Congo hemorrhagic fever in Albania-2001</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -23845,7 +23797,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever in Bulgaria, Direct Submission</t>
+          <t>Crimean-Congo hemorrhagic fever in Bulgaria</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -23937,7 +23889,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic detection and isolation of crimean-congo hemorrhagic fever virus, Kosovo, Yugoslavia</t>
+          <t>Genetic detection and isolation of crimean-congo hemorrhagic fever virus, Kosovo, Yugoslavia</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -24029,7 +23981,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>A novel AP92-like Crimean-Congo hemorrhagic fever virus strain, Direct Submission, Greece</t>
+          <t>A novel AP92-like Crimean-Congo hemorrhagic fever virus strain, Greece</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -24121,7 +24073,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Direct Submission, Emergence of Crimean-Congo haemorrhagic fever in Greece</t>
+          <t>Emergence of Crimean-Congo haemorrhagic fever in Greece</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -24213,7 +24165,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2012-2014, Direct Submission, Greece, Molecular detection of Crimean-Congo hemorrhagic fever virus in ticks</t>
+          <t>2012-2014, Greece, Molecular detection of Crimean-Congo hemorrhagic fever virus in ticks</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -24305,7 +24257,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Direct Submission, The Bulgarian vaccine Crimean-Congo haemorrhagic fever virus strain</t>
+          <t>The Bulgarian vaccine Crimean-Congo haemorrhagic fever virus strain</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -24397,7 +24349,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Bayesian phylogeography of crimean-congo hemorrhagic Fever virus in Europe, Direct Submission, Genetic diveregence of CCHFV in Albania, Genetic divergence of CCHFV in Albania</t>
+          <t>Bayesian phylogeography of crimean-congo hemorrhagic Fever virus in Europe, Genetic diveregence of CCHFV in Albania, Genetic divergence of CCHFV in Albania</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -24489,7 +24441,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>AP92 sequencing, Direct Submission</t>
+          <t>AP92 sequencing</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -24577,7 +24529,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Direct Submission, Greece, Isolation and whole-genome sequencing of a Crimean-Congo hemorrhagic fever virus strain</t>
+          <t>Greece, Isolation and whole-genome sequencing of a Crimean-Congo hemorrhagic fever virus strain</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -24761,7 +24713,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular epidemiology of Crimean-Congo hemorrhagic fever in Turkey, Molecular epidemiology of Crimean-congo hemorrhagic fever in Turkey</t>
+          <t>Molecular epidemiology of Crimean-Congo hemorrhagic fever in Turkey, Molecular epidemiology of Crimean-congo hemorrhagic fever in Turkey</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -24847,11 +24799,7 @@
           <t>Glass P., Jennings G., Lofts R., Miller M., Parker M., Schoepp R., Smith J., Spik K.</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr">
         <is>
           <t>Michael D. Parker, Bldg. 1425 Fort Detrick, Frederick, MD 21702, USA, USAMRIID, Virology Divison</t>
@@ -25021,7 +24969,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>CCHF virus, Direct Submission, isolated from ticks in Tajikistan</t>
+          <t>CCHF virus, isolated from ticks in Tajikistan</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -25109,7 +25057,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever virus, Direct Submission</t>
+          <t>Crimean-Congo hemorrhagic fever virus</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -25197,7 +25145,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular epidemiology and diagnostics of Crimean-Congo hemorrhagic fever in Southern Russia</t>
+          <t>Molecular epidemiology and diagnostics of Crimean-Congo hemorrhagic fever in Southern Russia</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -25285,7 +25233,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Direct Submission, Epidemiological analysis of crimean-congo hemorrhagic fever infection case on the territory of Crimean federal district in 2015 caused by a new genetic variants of the virus</t>
+          <t>Epidemiological analysis of crimean-congo hemorrhagic fever infection case on the territory of Crimean federal district in 2015 caused by a new genetic variants of the virus</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -25373,7 +25321,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>An Iran-Kerman22 related strain of Crimean-Congo hemorrhagic fever orthonairovirus, Direct Submission</t>
+          <t>An Iran-Kerman22 related strain of Crimean-Congo hemorrhagic fever orthonairovirus</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -25461,7 +25409,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Direct Submission, Sequencing and analysis of S gene of CCHFV</t>
+          <t>Sequencing and analysis of S gene of CCHFV</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -25549,7 +25497,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Direct Submission, Full genome sequencing and phylogenetic characterization of Crimean Congo hemorrhagic fever virus in Spain</t>
+          <t>Full genome sequencing and phylogenetic characterization of Crimean Congo hemorrhagic fever virus in Spain</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -25637,7 +25585,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2017-2020, Crimean-Congo Hemorrhagic Fever Virus Diversity and Reassortment, Direct Submission, Pakistan</t>
+          <t>2017-2020, Crimean-Congo Hemorrhagic Fever Virus Diversity and Reassortment, Pakistan</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -25729,7 +25677,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular investigation of a multisource outbreak of Crimean-Congo hemorrhagic fever in the United Arab Emirates</t>
+          <t>Molecular investigation of a multisource outbreak of Crimean-Congo hemorrhagic fever in the United Arab Emirates</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -25821,7 +25769,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Direct Submission, The Saharan antelope addax (Addax nasomaculatus) as a host for Hyalomma marginatum, tick vector of Crimean-Congo hemorrhagic fever virus</t>
+          <t>The Saharan antelope addax (Addax nasomaculatus) as a host for Hyalomma marginatum, tick vector of Crimean-Congo hemorrhagic fever virus</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -25913,7 +25861,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2019, Complete genome analysis of CCHF virus from India, Detection of African genotype in Hyalomma tick pool during Crimean Congo hemorrhagic fever outbreak, Detection of African genotype in Hyalomma tick pools during Crimean Congo Hemorrhagic Fever outbreak, Detection of African genotype in Hyalomma tick pools during Crimean Congo hemorrhagic fever outbreak, Direct Submission, India, Molecular characterisation of the CCHFV from the tick and human, Rajasthan, detected in last 8 years</t>
+          <t>2019, Complete genome analysis of CCHF virus from India, Detection of African genotype in Hyalomma tick pool during Crimean Congo hemorrhagic fever outbreak, Detection of African genotype in Hyalomma tick pools during Crimean Congo Hemorrhagic Fever outbreak, Detection of African genotype in Hyalomma tick pools during Crimean Congo hemorrhagic fever outbreak, India, Molecular characterisation of the CCHFV from the tick and human, Rajasthan, detected in last 8 years</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -26005,7 +25953,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Assessment of Humoral and Cellular Immune Responses Elicited by a DNA Based Vaccine Targeting Crimean Congo Hemorrhagic Fever Virus Glycoprotein Gc in Immunocompetent BALB/c Mouse Model, Direct Submission</t>
+          <t>Assessment of Humoral and Cellular Immune Responses Elicited by a DNA Based Vaccine Targeting Crimean Congo Hemorrhagic Fever Virus Glycoprotein Gc in Immunocompetent BALB/c Mouse Model</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -26093,7 +26041,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular and epidemiological studies on Crimean-Congo hemorrhagic fever in the Xinjiang Uygur Autonomous Region, P. R. China, Possible horizontal transmission of crimean-congo hemorrhagic Fever virus from a mother to her child</t>
+          <t>Molecular and epidemiological studies on Crimean-Congo hemorrhagic fever in the Xinjiang Uygur Autonomous Region, P. R. China, Possible horizontal transmission of crimean-congo hemorrhagic Fever virus from a mother to her child</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -26185,7 +26133,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>An isolate of CCHF virus from an Iranian fulminant CCHF patient, Direct Submission</t>
+          <t>An isolate of CCHF virus from an Iranian fulminant CCHF patient</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -26273,7 +26221,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Direct Submission, The negative effect of genetic variations of Crimean-Congo Hemorrhagic fever virus on Molecular diagnostic assays: a case report</t>
+          <t>The negative effect of genetic variations of Crimean-Congo Hemorrhagic fever virus on Molecular diagnostic assays: a case report</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -26361,7 +26309,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2022, Crimean-Congo Hemorrhagic Fever Virus infection in Ixodid ticks, Direct Submission, Iran</t>
+          <t>2022, Crimean-Congo Hemorrhagic Fever Virus infection in Ixodid ticks, Iran</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -26449,7 +26397,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic Monitoring of the Crimean-Congo Hemorrhagic Fever Virus in Kazakhstan</t>
+          <t>Genetic Monitoring of the Crimean-Congo Hemorrhagic Fever Virus in Kazakhstan</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -26537,7 +26485,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic characterization of the M RNA segment of Crimean-Congo hemorrhagic fever virus strains isolated in Russia and Tajikistan</t>
+          <t>Genetic characterization of the M RNA segment of Crimean-Congo hemorrhagic fever virus strains isolated in Russia and Tajikistan</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -26629,7 +26577,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic characterization of Crimean-Congo hemorrhagic fever virus in Damghan district, Iran</t>
+          <t>Genetic characterization of Crimean-Congo hemorrhagic fever virus in Damghan district, Iran</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -26717,7 +26665,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Direct Submission, Prevalence and phylogenetic analysis of Crimean-Congo hemorrhagic fever virus in ticks collected from Punjab province of Pakistan</t>
+          <t>Prevalence and phylogenetic analysis of Crimean-Congo hemorrhagic fever virus in ticks collected from Punjab province of Pakistan</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -26809,7 +26757,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>China, Direct Submission, Hyalomma detritum and Dermacentor nuttalli ticks from Xinjiang Uygur Autonomous Region, Viromes of Hyalomma asiaticum</t>
+          <t>China, Hyalomma detritum and Dermacentor nuttalli ticks from Xinjiang Uygur Autonomous Region, Viromes of Hyalomma asiaticum</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -26897,7 +26845,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular studies of CCHF virus circulating in North India</t>
+          <t>Molecular studies of CCHF virus circulating in North India</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -26985,7 +26933,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Direct Submission, Hidden threat of tortoise ticks: high prevalence of Crimean-Congo haemorrhagic fever virus in ticks Hyalomma aegyptium in the Middle East</t>
+          <t>Hidden threat of tortoise ticks: high prevalence of Crimean-Congo haemorrhagic fever virus in ticks Hyalomma aegyptium in the Middle East</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -27077,7 +27025,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular detection of the Crimean-Congo Hemorrhagic Fever Virus in Sulaimani/Iraq</t>
+          <t>Molecular detection of the Crimean-Congo Hemorrhagic Fever Virus in Sulaimani/Iraq</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -27163,11 +27111,7 @@
           <t>Ajati A., Dai X., Feng C., Hang C., Ma J., Meng W., Sun S., Wang X., Xie Y., Zhang F., Zhang Y., Zhu H.</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr">
         <is>
           <t>Xinjiang Center for Disease Control and Prevention, China, College of Life Science and Technology, Urumqi, Xinjiang 830002, Xinjiang University</t>
@@ -27253,7 +27197,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Direct Submission, FDA dAtabase for Regulatory Grade micrObial Sequences (FDA-ARGOS): Supporting development and validation of Infectious Disease Dx tests</t>
+          <t>FDA dAtabase for Regulatory Grade micrObial Sequences (FDA-ARGOS): Supporting development and validation of Infectious Disease Dx tests</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -27341,7 +27285,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>CCHF genetic variety research, Direct Submission</t>
+          <t>CCHF genetic variety research</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -27429,7 +27373,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic variety of Crimean-Congo Hemorrhagic Fever virus</t>
+          <t>Genetic variety of Crimean-Congo Hemorrhagic Fever virus</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -27517,7 +27461,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Direct Submission, Seroprevelance and genetic analysis of Crimean-Congo hemorrhagic fever virus in Tokat</t>
+          <t>Seroprevelance and genetic analysis of Crimean-Congo hemorrhagic fever virus in Tokat</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -27605,7 +27549,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Direct Submission, Novel segmented RNA Jingmenvirus group isolated from human</t>
+          <t>Novel segmented RNA Jingmenvirus group isolated from human</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -27693,7 +27637,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular characterization of S and M segments of Crimean Congo Hemorrhagic Fever Virus in Turkey</t>
+          <t>Molecular characterization of S and M segments of Crimean Congo Hemorrhagic Fever Virus in Turkey</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -27781,7 +27725,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever virus: genetic analysis and tick survey in Turkey, Direct Submission</t>
+          <t>Crimean-Congo hemorrhagic fever virus: genetic analysis and tick survey in Turkey</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -27873,7 +27817,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic diversity and phylogenetic analysis of Crimean-Congo Hemorrhagic Fever viruses circulating in Pakistan during 2019</t>
+          <t>Genetic diversity and phylogenetic analysis of Crimean-Congo Hemorrhagic Fever viruses circulating in Pakistan during 2019</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -27963,11 +27907,7 @@
           <t>Ali Q., Ammar M., Haider S., Hakim R., Jamal Z., Salman M., Umair M.</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Direct Submission</t>
-        </is>
-      </c>
+      <c r="B311" t="inlineStr"/>
       <c r="C311" t="inlineStr">
         <is>
           <t>Department of Virology, Chak Shahzad, Islamabad, Islamabad 44000, National Institute of Health, Pakistan, Park Road</t>
@@ -28053,7 +27993,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic analysis of Crimean-Congo hemorrhagic fever virus isolates in Tekirdag</t>
+          <t>Genetic analysis of Crimean-Congo hemorrhagic fever virus isolates in Tekirdag</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -28141,7 +28081,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Direct Submission, Genetic Monitoring of Crimean-Congo Hemorrhagic Fever Virus in the South of the European part of Russia</t>
+          <t>Genetic Monitoring of Crimean-Congo Hemorrhagic Fever Virus in the South of the European part of Russia</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -28229,7 +28169,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Direct Submission, Phylogenetic Characterisation of Crimean-Congo Hemorrhagic Fever Virus Detected in African Blue Ticks Feeding on Cattle in a Ugandan Abattoir</t>
+          <t>Phylogenetic Characterisation of Crimean-Congo Hemorrhagic Fever Virus Detected in African Blue Ticks Feeding on Cattle in a Ugandan Abattoir</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -28317,7 +28257,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Direct Submission, Molecular detection of Crimean-Congo hemorrhagic fever virus in ticks from Turkey</t>
+          <t>Molecular detection of Crimean-Congo hemorrhagic fever virus in ticks from Turkey</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -28405,7 +28345,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Direct Submission, First report of nosocomial outbreak of Crimean-Congo hemorrhagic fever, First report of nosocomial outbreak of CrimeanCongo hemorrhagic fever, India, Rajasthan State</t>
+          <t>First report of nosocomial outbreak of Crimean-Congo hemorrhagic fever, First report of nosocomial outbreak of CrimeanCongo hemorrhagic fever, India, Rajasthan State</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -28493,7 +28433,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2010-2011, 2011, A focal outbreak of Crimean Congo hemorrhagic fever in Ahmadabad, Direct Submission, Genetic characterization and molecular clock analyses of the Crimean-Congo hemorrhagic fever virus from human and ticks in India, Gujarat outbreak reveals to be close relative of Afghanistan isolate, India, The complete genome sequence of Crimean-Congo Hemorrhagic Fever virus isolated from human and ticks from Ahmadabad</t>
+          <t>2010-2011, 2011, A focal outbreak of Crimean Congo hemorrhagic fever in Ahmadabad, Genetic characterization and molecular clock analyses of the Crimean-Congo hemorrhagic fever virus from human and ticks in India, Gujarat outbreak reveals to be close relative of Afghanistan isolate, India, The complete genome sequence of Crimean-Congo Hemorrhagic Fever virus isolated from human and ticks from Ahmadabad</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -28585,7 +28525,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2019, Direct Submission, IgM and IgG Antibodies, India, Sequential Determination of Viral Titer, and Cytokine levels in Fatal &amp; Survive Crimean-Congo Hemorrhagic Fever Patients from Gujarat</t>
+          <t>2019, IgM and IgG Antibodies, India, Sequential Determination of Viral Titer, and Cytokine levels in Fatal &amp; Survive Crimean-Congo Hemorrhagic Fever Patients from Gujarat</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -28673,7 +28613,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2011, Crimean-Congo virus in Stavropol region of Russia, Direct Submission</t>
+          <t>2011, Crimean-Congo virus in Stavropol region of Russia</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -28761,7 +28701,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Direct Submission, Outbreak of Crimean-Congo Hemorrhagic Fever in Kazakhstan in 2000</t>
+          <t>Outbreak of Crimean-Congo Hemorrhagic Fever in Kazakhstan in 2000</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -28849,7 +28789,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Direct Submission, Saudi Arabia, Viral RNA Metagenomics of Hyalomma Ticks Collected from Dromedary Camels in Makkah Province</t>
+          <t>Saudi Arabia, Viral RNA Metagenomics of Hyalomma Ticks Collected from Dromedary Camels in Makkah Province</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -28941,7 +28881,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Direct Submission, The current status of tick populations in Istanbul and their biorisks in terms of CCHF and public health</t>
+          <t>The current status of tick populations in Istanbul and their biorisks in terms of CCHF and public health</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -29113,7 +29053,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Direct Submission, The Crimean-Congo haemorrhagic fever virus genetics and analysis, The characterization of CCHFV glycoproteins</t>
+          <t>The Crimean-Congo haemorrhagic fever virus genetics and analysis, The characterization of CCHFV glycoproteins</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -29201,7 +29141,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Direct Submission, Identification of broadly neutralizing monoclonal antibodies against Crimean-Congo hemorrhagic fever virus</t>
+          <t>Identification of broadly neutralizing monoclonal antibodies against Crimean-Congo hemorrhagic fever virus</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -29293,7 +29233,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Direct Submission, Sequence of Middle Eastern Crimean Congo hemorrhagic fever virus human isolates</t>
+          <t>Sequence of Middle Eastern Crimean Congo hemorrhagic fever virus human isolates</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -29381,7 +29321,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Direct Submission, Sequences of Crimean Congo hemorrhagic fever orthonairoviruses isolated from Turkey and South Africa</t>
+          <t>Sequences of Crimean Congo hemorrhagic fever orthonairoviruses isolated from Turkey and South Africa</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -29469,7 +29409,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Direct Submission, Mali, Unique strain of Crimean-Congo hemorrhagic fever virus</t>
+          <t>Mali, Unique strain of Crimean-Congo hemorrhagic fever virus</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -29561,7 +29501,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2015-2017, Crimean-Congo Hemorrhagic Fever Virus in Humans and Livestock, Direct Submission, Pakistan</t>
+          <t>2015-2017, Crimean-Congo Hemorrhagic Fever Virus in Humans and Livestock, Pakistan</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
